--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-0.35/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-0.35/avg_0.004_scores.xlsx
@@ -46,27 +46,27 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>broke</t>
+  </si>
+  <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>broke</t>
+    <t>however</t>
   </si>
   <si>
     <t>poor</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>smaller</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
@@ -94,25 +94,31 @@
     <t>cheap</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
-    <t>though</t>
+    <t>would</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>work</t>
   </si>
   <si>
     <t>money</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>work</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
-    <t>would</t>
+    <t>could</t>
+  </si>
+  <si>
+    <t>product</t>
   </si>
   <si>
     <t>used</t>
@@ -121,27 +127,21 @@
     <t>better</t>
   </si>
   <si>
-    <t>expected</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
     <t>3</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
     <t>like</t>
   </si>
   <si>
-    <t>buy</t>
-  </si>
-  <si>
     <t>little</t>
   </si>
   <si>
@@ -151,30 +151,27 @@
     <t>one</t>
   </si>
   <si>
-    <t>toy</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
     <t>favorite</t>
   </si>
   <si>
+    <t>classic</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
     <t>excellent</t>
   </si>
   <si>
-    <t>classic</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -184,19 +181,22 @@
     <t>loves</t>
   </si>
   <si>
+    <t>best</t>
+  </si>
+  <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>loved</t>
+  </si>
+  <si>
     <t>friends</t>
   </si>
   <si>
-    <t>loved</t>
+    <t>christmas</t>
   </si>
   <si>
     <t>fun</t>
-  </si>
-  <si>
-    <t>christmas</t>
   </si>
   <si>
     <t>game</t>
@@ -560,7 +560,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -568,7 +568,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s">
         <v>62</v>
@@ -629,13 +629,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9565217391304348</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D3">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -647,19 +647,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3">
-        <v>0.8571428571428571</v>
+        <v>0.8153846153846154</v>
       </c>
       <c r="L3">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="M3">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -679,13 +679,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -697,19 +697,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4">
-        <v>0.8307692307692308</v>
+        <v>0.8035714285714286</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -729,13 +729,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7580645161290323</v>
+        <v>0.7621359223300971</v>
       </c>
       <c r="C5">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="D5">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,19 +747,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5">
-        <v>0.7096774193548387</v>
+        <v>0.6989247311827957</v>
       </c>
       <c r="L5">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M5">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -771,7 +771,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -779,13 +779,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7330097087378641</v>
+        <v>0.7526881720430108</v>
       </c>
       <c r="C6">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="D6">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K6">
-        <v>0.609375</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="L6">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="M6">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -829,13 +829,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.7323943661971831</v>
+        <v>0.75</v>
       </c>
       <c r="C7">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D7">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -847,19 +847,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7">
-        <v>0.5471698113207547</v>
+        <v>0.4927536231884058</v>
       </c>
       <c r="L7">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>24</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -879,13 +879,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.71875</v>
+        <v>0.6901408450704225</v>
       </c>
       <c r="C8">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D8">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -897,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8">
-        <v>0.4782608695652174</v>
+        <v>0.46875</v>
       </c>
       <c r="L8">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M8">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -929,13 +929,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6756756756756757</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9">
-        <v>0.3819672131147541</v>
+        <v>0.369672131147541</v>
       </c>
       <c r="L9">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="M9">
-        <v>466</v>
+        <v>451</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -971,7 +971,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>754</v>
+        <v>769</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -979,13 +979,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5714285714285714</v>
+        <v>0.6</v>
       </c>
       <c r="C10">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="D10">
-        <v>68</v>
+        <v>33</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -997,19 +997,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K10">
-        <v>0.360632183908046</v>
+        <v>0.3314203730272597</v>
       </c>
       <c r="L10">
-        <v>251</v>
+        <v>231</v>
       </c>
       <c r="M10">
-        <v>252</v>
+        <v>231</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1018,10 +1018,10 @@
         <v>0</v>
       </c>
       <c r="P10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>445</v>
+        <v>466</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1029,13 +1029,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5272727272727272</v>
+        <v>0.5966386554621849</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1047,19 +1047,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11">
-        <v>0.3070539419087137</v>
+        <v>0.3091286307053942</v>
       </c>
       <c r="L11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M11">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1079,13 +1079,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5101449275362319</v>
+        <v>0.5130434782608696</v>
       </c>
       <c r="C12">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D12">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1097,19 +1097,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K12">
-        <v>0.2469879518072289</v>
+        <v>0.2583333333333334</v>
       </c>
       <c r="L12">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="M12">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>125</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1150,16 +1150,16 @@
         <v>34</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K13">
-        <v>0.1798941798941799</v>
+        <v>0.2530120481927711</v>
       </c>
       <c r="L13">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M13">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>155</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1179,13 +1179,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4330708661417323</v>
+        <v>0.4488188976377953</v>
       </c>
       <c r="C14">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D14">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K14">
-        <v>0.1773700305810398</v>
+        <v>0.2415902140672783</v>
       </c>
       <c r="L14">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="M14">
-        <v>58</v>
+        <v>79</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>269</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1229,13 +1229,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4096385542168675</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="C15">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D15">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15">
-        <v>0.1165644171779141</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="L15">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="M15">
-        <v>133</v>
+        <v>36</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1008</v>
+        <v>153</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1279,13 +1279,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C16">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D16">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1297,19 +1297,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K16">
-        <v>0.1164658634538153</v>
+        <v>0.1285140562248996</v>
       </c>
       <c r="L16">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="M16">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1321,7 +1321,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1329,13 +1329,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.375</v>
+        <v>0.3671875</v>
       </c>
       <c r="C17">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1347,31 +1347,31 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K17">
-        <v>0.06298701298701298</v>
+        <v>0.09569798068481124</v>
       </c>
       <c r="L17">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="M17">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="N17">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="O17">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P17" t="b">
         <v>1</v>
       </c>
       <c r="Q17">
-        <v>1443</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1379,13 +1379,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3707865168539326</v>
+        <v>0.3483146067415731</v>
       </c>
       <c r="C18">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1397,7 +1397,31 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>56</v>
+        <v>58</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K18">
+        <v>0.05974025974025974</v>
+      </c>
+      <c r="L18">
+        <v>92</v>
+      </c>
+      <c r="M18">
+        <v>93</v>
+      </c>
+      <c r="N18">
+        <v>0.99</v>
+      </c>
+      <c r="O18">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P18" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q18">
+        <v>1448</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1405,13 +1429,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3465346534653465</v>
+        <v>0.3316831683168317</v>
       </c>
       <c r="C19">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D19">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1423,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>132</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1431,13 +1455,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3270142180094787</v>
+        <v>0.3175355450236967</v>
       </c>
       <c r="C20">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D20">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1449,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1457,13 +1481,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.2938144329896907</v>
+        <v>0.264957264957265</v>
       </c>
       <c r="C21">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D21">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1475,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>137</v>
+        <v>86</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1483,13 +1507,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.2905982905982906</v>
+        <v>0.2525773195876289</v>
       </c>
       <c r="C22">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="D22">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1501,7 +1525,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>83</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1509,25 +1533,25 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.2531645569620253</v>
+        <v>0.2154531946508172</v>
       </c>
       <c r="C23">
-        <v>80</v>
+        <v>145</v>
       </c>
       <c r="D23">
-        <v>80</v>
+        <v>146</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="G23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>236</v>
+        <v>528</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1535,13 +1559,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2028985507246377</v>
+        <v>0.21</v>
       </c>
       <c r="C24">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D24">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1553,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>220</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1561,13 +1585,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2025316455696203</v>
+        <v>0.2028985507246377</v>
       </c>
       <c r="C25">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D25">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1579,7 +1603,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>252</v>
+        <v>220</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1587,13 +1611,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2</v>
+        <v>0.1930379746835443</v>
       </c>
       <c r="C26">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="D26">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1605,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>160</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1613,25 +1637,25 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1976225854383358</v>
+        <v>0.189873417721519</v>
       </c>
       <c r="C27">
-        <v>133</v>
+        <v>60</v>
       </c>
       <c r="D27">
-        <v>134</v>
+        <v>60</v>
       </c>
       <c r="E27">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>540</v>
+        <v>256</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1639,13 +1663,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1771428571428571</v>
+        <v>0.1847133757961783</v>
       </c>
       <c r="C28">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D28">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1657,7 +1681,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>144</v>
+        <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1665,13 +1689,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1728971962616822</v>
+        <v>0.1828193832599119</v>
       </c>
       <c r="C29">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="D29">
-        <v>37</v>
+        <v>83</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1683,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>177</v>
+        <v>371</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1691,13 +1715,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.171875</v>
+        <v>0.1771428571428571</v>
       </c>
       <c r="C30">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D30">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1709,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>159</v>
+        <v>144</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1717,13 +1741,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1585903083700441</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="C31">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="D31">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1735,7 +1759,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>382</v>
+        <v>179</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1743,25 +1767,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1469740634005764</v>
+        <v>0.1408045977011494</v>
       </c>
       <c r="C32">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D32">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E32">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1769,13 +1793,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1290322580645161</v>
+        <v>0.1169354838709677</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D33">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -1787,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1795,13 +1819,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1095890410958904</v>
+        <v>0.1161048689138577</v>
       </c>
       <c r="C34">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D34">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1813,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>325</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1821,25 +1845,25 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.09060955518945635</v>
+        <v>0.1150684931506849</v>
       </c>
       <c r="C35">
-        <v>55</v>
+        <v>42</v>
       </c>
       <c r="D35">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="E35">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>552</v>
+        <v>323</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1847,13 +1871,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.08169014084507042</v>
+        <v>0.08881578947368421</v>
       </c>
       <c r="C36">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="D36">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1865,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>326</v>
+        <v>554</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1873,25 +1897,25 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.0801781737193764</v>
+        <v>0.08482142857142858</v>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D37">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F37">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G37" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H37">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1899,25 +1923,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.07764705882352942</v>
+        <v>0.07746478873239436</v>
       </c>
       <c r="C38">
         <v>33</v>
       </c>
       <c r="D38">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E38">
-        <v>0.21</v>
+        <v>0.2</v>
       </c>
       <c r="F38">
-        <v>0.79</v>
+        <v>0.8</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1925,51 +1949,25 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04810126582278481</v>
+        <v>0.04701397712833545</v>
       </c>
       <c r="C39">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D39">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E39">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="F39">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>0.0444104134762634</v>
-      </c>
-      <c r="C40">
-        <v>29</v>
-      </c>
-      <c r="D40">
-        <v>31</v>
-      </c>
-      <c r="E40">
-        <v>0.06</v>
-      </c>
-      <c r="F40">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>624</v>
+        <v>750</v>
       </c>
     </row>
   </sheetData>
